--- a/src/test/resources/Exceldata/login.xlsx
+++ b/src/test/resources/Exceldata/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6180" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="6180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,15 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:P18"/>
+  <oleSize ref="A1:P16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -79,11 +85,43 @@
 print(x)</t>
   </si>
   <si>
-    <t>[2,3,5,],6</t>
-  </si>
-  <si>
     <t>x=[2,3,4]
- print(x)</t>
+print(x)</t>
+  </si>
+  <si>
+    <t>nums=[1,1,0,1,1]
+print(nums)</t>
+  </si>
+  <si>
+    <t>nums=[12,345,2,6,7896]
+print(nums)</t>
+  </si>
+  <si>
+    <t>nums = [-7,-3,2,3,11]
+print(nums)</t>
+  </si>
+  <si>
+    <t>x=[6,7,8]
+print(x)</t>
+  </si>
+  <si>
+    <t>imp=[34,56,9]
+print(imp)</t>
+  </si>
+  <si>
+    <t>a=[56,67,89]
+print(a)</t>
+  </si>
+  <si>
+    <t>max=[-1,-2,3,4]
+print(max)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>g=[4,5,6]
+print(g)</t>
   </si>
 </sst>
 </file>
@@ -490,12 +528,192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,19 +739,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="3" t="str">
-        <f>"edges1 = [(0, 1)]
-print(edges1)"</f>
-        <v>edges1 = [(0, 1)]
-print(edges1)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -589,8 +800,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -603,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +827,7 @@
     </row>
     <row r="2" spans="1:1" ht="30">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -722,12 +933,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Exceldata/login.xlsx
+++ b/src/test/resources/Exceldata/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="6180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6180" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,15 @@
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:P16"/>
+  <oleSize ref="A1:T18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -122,6 +128,30 @@
   <si>
     <t>g=[4,5,6]
 print(g)</t>
+  </si>
+  <si>
+    <t>tree=[1,2]
+print(tree)</t>
+  </si>
+  <si>
+    <t>pre=[67,89,90]
+print(pre)</t>
+  </si>
+  <si>
+    <t>bin=[45,67,89]
+print(bin)</t>
+  </si>
+  <si>
+    <t>tree=[89,90,76]
+print(tree)</t>
+  </si>
+  <si>
+    <t>n=[8,9,10]
+print(n)</t>
+  </si>
+  <si>
+    <t>x=[15,67,43]
+print(x)</t>
   </si>
 </sst>
 </file>
@@ -708,6 +738,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
@@ -750,6 +900,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
@@ -814,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Exceldata/login.xlsx
+++ b/src/test/resources/Exceldata/login.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShriMuthra\Documents\GitHub\DSAlgo\src\test\resources\Exceldata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6180" firstSheet="13" activeTab="20"/>
   </bookViews>
@@ -30,7 +35,6 @@
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:T18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -860,7 +864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -871,12 +875,12 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="3" t="str">
         <f>"x=[2,3,4]
 print(x)"</f>
@@ -884,17 +888,16 @@
 print(x)</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -939,6 +942,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1052,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1075,7 +1081,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
